--- a/material extra/usuarios_creativo.xlsx
+++ b/material extra/usuarios_creativo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Tipo de dato</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>soporte@mailcreativo.cl</t>
+  </si>
+  <si>
+    <t>qvgJ99?8</t>
+  </si>
+  <si>
+    <t>ventas@mailcreativo.cl</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,14 +548,24 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B11" r:id="rId2"/>
     <hyperlink ref="B8" r:id="rId3"/>
     <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B12" r:id="rId5" display="https://www.atomos.cl:8443/smb/email-address/edit/id/28/domainId/6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
